--- a/nodes_source_analyses/transport/transport_car_using_gasoline_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_gasoline_mix.converter.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26405"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="19200" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -230,9 +238,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t xml:space="preserve"> Initial investment costs</t>
@@ -318,6 +323,10 @@
       <t>2</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
+</t>
+  </si>
 </sst>
 </file>
 
@@ -327,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -515,11 +524,6 @@
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1161,7 +1165,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1221,23 +1225,23 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1266,12 +1270,12 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1306,38 +1310,38 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1600,80 +1604,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>5</xdr:col>
-          <xdr:colOff>419100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>50800</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>139700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>63500</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes on ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1942,7 +1881,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2383,32 +2322,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="21"/>
+    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1">
+    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26"/>
       <c r="B1" s="27"/>
       <c r="C1" s="27"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="29" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="29"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>12</v>
@@ -2417,7 +2356,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
         <v>57</v>
@@ -2426,7 +2365,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -2435,29 +2374,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="96" t="s">
         <v>42</v>
       </c>
       <c r="C9" s="97"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="98"/>
       <c r="C10" s="99"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="98" t="s">
         <v>43</v>
@@ -2466,33 +2405,33 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="98"/>
       <c r="C12" s="13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="98"/>
       <c r="C13" s="101" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="98"/>
       <c r="C14" s="99" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="98"/>
       <c r="C15" s="99"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="98" t="s">
         <v>48</v>
@@ -2501,49 +2440,49 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="98"/>
       <c r="C17" s="103" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="98"/>
       <c r="C18" s="104" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="98"/>
       <c r="C19" s="105" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="106"/>
       <c r="C21" s="108" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="106"/>
       <c r="C22" s="109" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="106"/>
       <c r="C23" s="110" t="s">
         <v>56</v>
@@ -2552,88 +2491,83 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.375" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="35"/>
+    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="146" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="C2" s="147"/>
       <c r="D2" s="147"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-    </row>
-    <row r="3" spans="2:11">
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="148"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="149"/>
       <c r="C3" s="150"/>
       <c r="D3" s="150"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="36"/>
-    </row>
-    <row r="4" spans="2:11">
+      <c r="E3" s="150"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="151"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="149"/>
       <c r="C4" s="150"/>
       <c r="D4" s="150"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-    </row>
-    <row r="5" spans="2:11">
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="151"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="152"/>
       <c r="C5" s="153"/>
       <c r="D5" s="153"/>
-      <c r="E5" s="154"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-    </row>
-    <row r="6" spans="2:11">
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="154"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
     </row>
-    <row r="7" spans="2:11" ht="16" thickBot="1">
+    <row r="7" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D7" s="36"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="37"/>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2644,7 +2578,7 @@
       <c r="I8" s="20"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" spans="2:11" s="25" customFormat="1">
+    <row r="9" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="23"/>
       <c r="C9" s="16" t="s">
         <v>20</v>
@@ -2665,7 +2599,7 @@
       </c>
       <c r="J9" s="116"/>
     </row>
-    <row r="10" spans="2:11" s="25" customFormat="1">
+    <row r="10" spans="2:11" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="24"/>
       <c r="C10" s="13"/>
       <c r="D10" s="32"/>
@@ -2676,7 +2610,7 @@
       <c r="I10" s="13"/>
       <c r="J10" s="14"/>
     </row>
-    <row r="11" spans="2:11" s="25" customFormat="1" ht="16" thickBot="1">
+    <row r="11" spans="2:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="13" t="s">
         <v>62</v>
@@ -2689,13 +2623,13 @@
       <c r="I11" s="13"/>
       <c r="J11" s="14"/>
     </row>
-    <row r="12" spans="2:11" s="25" customFormat="1" ht="16" thickBot="1">
+    <row r="12" spans="2:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
       <c r="C12" s="70" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E12" s="34">
         <f>'Research data'!H7</f>
@@ -2703,15 +2637,15 @@
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="145" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J12" s="14"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="40"/>
       <c r="C13" s="36"/>
       <c r="D13" s="118"/>
@@ -2723,7 +2657,7 @@
       <c r="J13" s="117"/>
       <c r="K13" s="36"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="13" t="s">
         <v>5</v>
@@ -2737,7 +2671,7 @@
       <c r="J14" s="117"/>
       <c r="K14" s="36"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="40"/>
       <c r="C15" s="39" t="s">
         <v>23</v>
@@ -2755,11 +2689,11 @@
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J15" s="117"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="40"/>
       <c r="C16" s="39" t="s">
         <v>22</v>
@@ -2778,7 +2712,7 @@
       </c>
       <c r="J16" s="117"/>
     </row>
-    <row r="17" spans="2:10" ht="16" thickBot="1">
+    <row r="17" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="42"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
@@ -2789,50 +2723,13 @@
       <c r="I17" s="43"/>
       <c r="J17" s="44"/>
     </row>
-    <row r="21" spans="2:10" ht="15" customHeight="1"/>
+    <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:E5"/>
+    <mergeCell ref="B2:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>5</xdr:col>
-                    <xdr:colOff>419100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>50800</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>7</xdr:col>
-                    <xdr:colOff>139700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>63500</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2847,35 +2744,35 @@
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="45" customWidth="1"/>
     <col min="2" max="2" width="3" style="45" customWidth="1"/>
-    <col min="3" max="3" width="34.375" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="45" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="45" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="45" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="45" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="45" customWidth="1"/>
     <col min="7" max="7" width="3" style="45" customWidth="1"/>
-    <col min="8" max="8" width="9.625" style="45" customWidth="1"/>
-    <col min="9" max="9" width="2.625" style="45" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="45" customWidth="1"/>
-    <col min="11" max="11" width="2.5" style="45" customWidth="1"/>
-    <col min="12" max="12" width="9.25" style="45" customWidth="1"/>
-    <col min="13" max="13" width="2.375" style="45" customWidth="1"/>
-    <col min="14" max="14" width="8.625" style="45" customWidth="1"/>
-    <col min="15" max="15" width="2.125" style="45" customWidth="1"/>
-    <col min="16" max="16" width="9.25" style="45" customWidth="1"/>
-    <col min="17" max="17" width="2.875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="45" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="45" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="45" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" style="45" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="45" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="45" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" style="45" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="9.28515625" style="45" customWidth="1"/>
+    <col min="17" max="17" width="2.85546875" style="45" customWidth="1"/>
     <col min="18" max="18" width="11" style="45" customWidth="1"/>
-    <col min="19" max="19" width="2.375" style="45" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" style="45" customWidth="1"/>
     <col min="20" max="20" width="11" style="45" customWidth="1"/>
-    <col min="21" max="21" width="2.5" style="45" customWidth="1"/>
-    <col min="22" max="22" width="22.375" style="45" customWidth="1"/>
-    <col min="23" max="16384" width="10.625" style="45"/>
+    <col min="21" max="21" width="2.42578125" style="45" customWidth="1"/>
+    <col min="22" max="22" width="22.42578125" style="45" customWidth="1"/>
+    <col min="23" max="16384" width="10.7109375" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:24" ht="16" thickBot="1"/>
-    <row r="3" spans="1:24">
+    <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B3" s="46"/>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -2898,7 +2795,7 @@
       <c r="U3" s="47"/>
       <c r="V3" s="47"/>
     </row>
-    <row r="4" spans="1:24" s="25" customFormat="1">
+    <row r="4" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="112" t="s">
         <v>59</v>
@@ -2926,22 +2823,22 @@
       </c>
       <c r="O4" s="112"/>
       <c r="P4" s="112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="112"/>
       <c r="R4" s="112" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="S4" s="112"/>
       <c r="T4" s="112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="U4" s="112"/>
       <c r="V4" s="112" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="18" customHeight="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="126"/>
       <c r="B5" s="127"/>
       <c r="C5" s="128"/>
@@ -2966,7 +2863,7 @@
       <c r="V5" s="133"/>
       <c r="X5" s="126"/>
     </row>
-    <row r="6" spans="1:24" ht="18" customHeight="1" thickBot="1">
+    <row r="6" spans="1:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="126"/>
       <c r="B6" s="127"/>
       <c r="C6" s="12" t="s">
@@ -2993,7 +2890,7 @@
       <c r="V6" s="133"/>
       <c r="X6" s="129"/>
     </row>
-    <row r="7" spans="1:24" ht="16" thickBot="1">
+    <row r="7" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="126"/>
       <c r="B7" s="127"/>
       <c r="C7" s="134" t="s">
@@ -3002,7 +2899,7 @@
       <c r="D7" s="134"/>
       <c r="E7" s="134"/>
       <c r="F7" s="135" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G7" s="136"/>
       <c r="H7" s="137">
@@ -3029,10 +2926,10 @@
       </c>
       <c r="U7" s="138"/>
       <c r="V7" s="144" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B8" s="48"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -3051,7 +2948,7 @@
       <c r="T8" s="49"/>
       <c r="V8" s="64"/>
     </row>
-    <row r="9" spans="1:24" ht="16" thickBot="1">
+    <row r="9" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="48"/>
       <c r="C9" s="12" t="s">
         <v>5</v>
@@ -3076,7 +2973,7 @@
       <c r="U9" s="49"/>
       <c r="V9" s="62"/>
     </row>
-    <row r="10" spans="1:24" ht="16" thickBot="1">
+    <row r="10" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="48"/>
       <c r="C10" s="57" t="s">
         <v>3</v>
@@ -3109,7 +3006,7 @@
       <c r="U10" s="49"/>
       <c r="V10" s="68"/>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B11" s="48"/>
       <c r="C11" s="33"/>
       <c r="D11" s="33"/>
@@ -3132,7 +3029,7 @@
       <c r="U11" s="49"/>
       <c r="V11" s="52"/>
     </row>
-    <row r="12" spans="1:24" ht="16" thickBot="1">
+    <row r="12" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="12" t="s">
         <v>61</v>
@@ -3157,10 +3054,10 @@
       <c r="U12" s="49"/>
       <c r="V12" s="64"/>
     </row>
-    <row r="13" spans="1:24" ht="16" thickBot="1">
+    <row r="13" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="120" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -3196,7 +3093,7 @@
       <c r="U13" s="53"/>
       <c r="V13" s="67"/>
     </row>
-    <row r="14" spans="1:24" ht="16" thickBot="1">
+    <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
       <c r="C14" s="57" t="s">
         <v>60</v>
@@ -3232,11 +3129,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3251,22 +3143,22 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="72" customWidth="1"/>
-    <col min="3" max="3" width="27.875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="72" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="72" customWidth="1"/>
-    <col min="6" max="7" width="13.25" style="72" customWidth="1"/>
-    <col min="8" max="8" width="12.75" style="77" customWidth="1"/>
-    <col min="9" max="9" width="31.5" style="77" customWidth="1"/>
-    <col min="10" max="10" width="98.375" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="33.125" style="72"/>
+    <col min="1" max="1" width="3.42578125" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="72" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="72" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" style="72" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="77" customWidth="1"/>
+    <col min="9" max="9" width="31.42578125" style="77" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="72"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="16" thickBot="1"/>
-    <row r="2" spans="2:10">
+    <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B2" s="73"/>
       <c r="C2" s="74"/>
       <c r="D2" s="74"/>
@@ -3277,7 +3169,7 @@
       <c r="I2" s="78"/>
       <c r="J2" s="74"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="75"/>
       <c r="C3" s="13" t="s">
         <v>16</v>
@@ -3290,7 +3182,7 @@
       <c r="I3" s="18"/>
       <c r="J3" s="71"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="75"/>
       <c r="C4" s="71"/>
       <c r="D4" s="71"/>
@@ -3301,7 +3193,7 @@
       <c r="I4" s="79"/>
       <c r="J4" s="71"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="80"/>
       <c r="C5" s="15" t="s">
         <v>17</v>
@@ -3316,19 +3208,19 @@
         <v>18</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="75"/>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -3339,7 +3231,7 @@
       <c r="I6" s="18"/>
       <c r="J6" s="13"/>
     </row>
-    <row r="7" spans="2:10">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="75"/>
       <c r="C7" s="81"/>
       <c r="D7" s="94" t="s">
@@ -3356,13 +3248,13 @@
       </c>
       <c r="H7" s="76"/>
       <c r="I7" s="125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J7" s="50" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="75"/>
       <c r="C8" s="81" t="s">
         <v>6</v>
@@ -3375,7 +3267,7 @@
       <c r="I8" s="71"/>
       <c r="J8" s="71"/>
     </row>
-    <row r="9" spans="2:10">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="75"/>
       <c r="C9" s="81"/>
       <c r="D9" s="71"/>
@@ -3386,7 +3278,7 @@
       <c r="I9" s="71"/>
       <c r="J9" s="71"/>
     </row>
-    <row r="10" spans="2:10">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="75"/>
       <c r="C10" s="82"/>
       <c r="D10" s="71" t="s">
@@ -3403,13 +3295,13 @@
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="124" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:10">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="75"/>
       <c r="C11" s="81" t="s">
         <v>6</v>
@@ -3421,7 +3313,7 @@
       <c r="H11" s="76"/>
       <c r="I11" s="71"/>
     </row>
-    <row r="12" spans="2:10">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="75"/>
       <c r="C12" s="81"/>
       <c r="D12" s="71"/>
@@ -3431,7 +3323,7 @@
       <c r="H12" s="76"/>
       <c r="I12" s="71"/>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="75"/>
       <c r="C13" s="82"/>
       <c r="D13" s="71" t="s">
@@ -3450,7 +3342,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="75"/>
       <c r="C14" s="81" t="s">
         <v>6</v>
@@ -3463,7 +3355,7 @@
       <c r="I14" s="71"/>
       <c r="J14" s="71"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="75"/>
       <c r="C15" s="82"/>
       <c r="D15" s="71"/>
@@ -3474,13 +3366,13 @@
       <c r="I15" s="71"/>
       <c r="J15" s="71"/>
     </row>
-    <row r="16" spans="2:10">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="75"/>
       <c r="C16" s="139" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D16" s="123" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>7</v>
@@ -3493,13 +3385,13 @@
       </c>
       <c r="H16" s="71"/>
       <c r="I16" s="125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J16" s="123" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B17" s="75"/>
       <c r="C17" s="81" t="s">
         <v>3</v>
@@ -3512,7 +3404,7 @@
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="75"/>
       <c r="C18" s="82"/>
       <c r="D18" s="71"/>
@@ -3523,13 +3415,13 @@
       <c r="I18" s="71"/>
       <c r="J18" s="71"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="75"/>
       <c r="C19" s="81" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E19" s="71" t="s">
         <v>7</v>
@@ -3542,13 +3434,13 @@
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19" s="71" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="75"/>
       <c r="D20" s="71"/>
       <c r="E20" s="71"/>
@@ -3558,14 +3450,14 @@
       <c r="I20" s="71"/>
       <c r="J20" s="71"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="141"/>
       <c r="B21" s="142"/>
       <c r="C21" s="143" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="92" t="s">
         <v>81</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>82</v>
       </c>
       <c r="E21" s="141" t="s">
         <v>7</v>
@@ -3578,21 +3470,16 @@
       </c>
       <c r="H21" s="141"/>
       <c r="I21" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="84" t="s">
         <v>84</v>
       </c>
-      <c r="J21" s="84" t="s">
-        <v>85</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="32" type="noConversion"/>
+  <phoneticPr fontId="31" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3607,21 +3494,21 @@
       <selection activeCell="C92" sqref="C92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.75" style="84" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="84" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="84" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="84" customWidth="1"/>
-    <col min="6" max="6" width="3.875" style="84" customWidth="1"/>
-    <col min="7" max="13" width="10.625" style="84"/>
-    <col min="14" max="14" width="7.125" style="84" customWidth="1"/>
-    <col min="15" max="16384" width="10.625" style="84"/>
+    <col min="1" max="1" width="3.7109375" style="84" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="84" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="84" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="84" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="84" customWidth="1"/>
+    <col min="6" max="6" width="3.85546875" style="84" customWidth="1"/>
+    <col min="7" max="13" width="10.7109375" style="84"/>
+    <col min="14" max="14" width="7.140625" style="84" customWidth="1"/>
+    <col min="15" max="16384" width="10.7109375" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1"/>
-    <row r="2" spans="1:14">
+    <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" s="85"/>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -3636,7 +3523,7 @@
       <c r="M2" s="86"/>
       <c r="N2" s="87"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="88"/>
       <c r="B3" s="121"/>
       <c r="C3" s="95" t="s">
@@ -3656,7 +3543,7 @@
       <c r="M3" s="89"/>
       <c r="N3" s="122"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B4" s="91"/>
       <c r="C4" s="92"/>
       <c r="D4" s="92"/>
@@ -3671,7 +3558,7 @@
       <c r="M4" s="92"/>
       <c r="N4" s="90"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B5" s="91"/>
       <c r="C5" s="92"/>
       <c r="D5" s="92"/>
@@ -3686,7 +3573,7 @@
       <c r="M5" s="92"/>
       <c r="N5" s="90"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="91"/>
       <c r="C6" s="92" t="s">
         <v>30</v>
@@ -3703,7 +3590,7 @@
       <c r="M6" s="92"/>
       <c r="N6" s="90"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="91"/>
       <c r="C7" s="92"/>
       <c r="D7" s="92"/>
@@ -3718,7 +3605,7 @@
       <c r="M7" s="92"/>
       <c r="N7" s="90"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="91"/>
       <c r="C8" s="92"/>
       <c r="D8" s="92"/>
@@ -3733,7 +3620,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="90"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" s="91"/>
       <c r="C9" s="92"/>
       <c r="D9" s="92"/>
@@ -3752,7 +3639,7 @@
       <c r="M9" s="92"/>
       <c r="N9" s="90"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B10" s="91"/>
       <c r="C10" s="92"/>
       <c r="D10" s="92"/>
@@ -3767,7 +3654,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="90"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B11" s="91"/>
       <c r="C11" s="92"/>
       <c r="D11" s="92"/>
@@ -3782,7 +3669,7 @@
       <c r="M11" s="92"/>
       <c r="N11" s="90"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B12" s="91"/>
       <c r="C12" s="92"/>
       <c r="D12" s="92"/>
@@ -3797,7 +3684,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="90"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B13" s="91"/>
       <c r="C13" s="92"/>
       <c r="D13" s="92"/>
@@ -3812,7 +3699,7 @@
       <c r="M13" s="92"/>
       <c r="N13" s="90"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B14" s="91"/>
       <c r="C14" s="92"/>
       <c r="D14" s="92"/>
@@ -3827,7 +3714,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="90"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" s="91"/>
       <c r="C15" s="92"/>
       <c r="D15" s="92"/>
@@ -3842,7 +3729,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="90"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B16" s="91"/>
       <c r="C16" s="92"/>
       <c r="D16" s="92"/>
@@ -3857,7 +3744,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="90"/>
     </row>
-    <row r="17" spans="2:14">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B17" s="91"/>
       <c r="C17" s="92"/>
       <c r="D17" s="92"/>
@@ -3872,7 +3759,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="90"/>
     </row>
-    <row r="18" spans="2:14">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B18" s="91"/>
       <c r="C18" s="92"/>
       <c r="D18" s="92"/>
@@ -3887,7 +3774,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="90"/>
     </row>
-    <row r="19" spans="2:14">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B19" s="91"/>
       <c r="C19" s="92"/>
       <c r="D19" s="92"/>
@@ -3902,7 +3789,7 @@
       <c r="M19" s="92"/>
       <c r="N19" s="90"/>
     </row>
-    <row r="20" spans="2:14">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B20" s="91"/>
       <c r="C20" s="92"/>
       <c r="D20" s="92"/>
@@ -3917,7 +3804,7 @@
       <c r="M20" s="92"/>
       <c r="N20" s="90"/>
     </row>
-    <row r="21" spans="2:14">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B21" s="91"/>
       <c r="C21" s="92"/>
       <c r="D21" s="92"/>
@@ -3932,7 +3819,7 @@
       <c r="M21" s="92"/>
       <c r="N21" s="90"/>
     </row>
-    <row r="22" spans="2:14">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B22" s="91"/>
       <c r="C22" s="92"/>
       <c r="D22" s="92"/>
@@ -3947,7 +3834,7 @@
       <c r="M22" s="92"/>
       <c r="N22" s="90"/>
     </row>
-    <row r="23" spans="2:14">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="91"/>
       <c r="C23" s="92" t="s">
         <v>39</v>
@@ -3964,7 +3851,7 @@
       <c r="M23" s="92"/>
       <c r="N23" s="90"/>
     </row>
-    <row r="24" spans="2:14">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B24" s="91"/>
       <c r="C24" s="92"/>
       <c r="D24" s="92"/>
@@ -3979,7 +3866,7 @@
       <c r="M24" s="92"/>
       <c r="N24" s="90"/>
     </row>
-    <row r="25" spans="2:14">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B25" s="91"/>
       <c r="C25" s="92"/>
       <c r="D25" s="92"/>
@@ -3994,7 +3881,7 @@
       <c r="M25" s="92"/>
       <c r="N25" s="90"/>
     </row>
-    <row r="26" spans="2:14">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B26" s="91"/>
       <c r="C26" s="92"/>
       <c r="D26" s="92"/>
@@ -4009,7 +3896,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="90"/>
     </row>
-    <row r="27" spans="2:14">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B27" s="91"/>
       <c r="C27" s="92"/>
       <c r="D27" s="92"/>
@@ -4024,7 +3911,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="90"/>
     </row>
-    <row r="28" spans="2:14">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B28" s="91"/>
       <c r="C28" s="92"/>
       <c r="D28" s="92"/>
@@ -4043,7 +3930,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="90"/>
     </row>
-    <row r="29" spans="2:14">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B29" s="91"/>
       <c r="C29" s="92"/>
       <c r="D29" s="92"/>
@@ -4058,7 +3945,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="90"/>
     </row>
-    <row r="30" spans="2:14">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B30" s="91"/>
       <c r="C30" s="92"/>
       <c r="D30" s="92"/>
@@ -4073,7 +3960,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="90"/>
     </row>
-    <row r="31" spans="2:14">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B31" s="91"/>
       <c r="C31" s="92"/>
       <c r="D31" s="92"/>
@@ -4088,7 +3975,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="90"/>
     </row>
-    <row r="32" spans="2:14">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B32" s="91"/>
       <c r="C32" s="92"/>
       <c r="D32" s="92"/>
@@ -4103,7 +3990,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="90"/>
     </row>
-    <row r="33" spans="2:14">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B33" s="91"/>
       <c r="C33" s="92"/>
       <c r="D33" s="92"/>
@@ -4118,7 +4005,7 @@
       <c r="M33" s="92"/>
       <c r="N33" s="90"/>
     </row>
-    <row r="34" spans="2:14">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B34" s="91"/>
       <c r="C34" s="92"/>
       <c r="D34" s="92"/>
@@ -4133,7 +4020,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="90"/>
     </row>
-    <row r="35" spans="2:14">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B35" s="91"/>
       <c r="C35" s="92" t="s">
         <v>28</v>
@@ -4150,7 +4037,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="90"/>
     </row>
-    <row r="36" spans="2:14">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B36" s="91"/>
       <c r="C36" s="92"/>
       <c r="D36" s="92"/>
@@ -4165,7 +4052,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="90"/>
     </row>
-    <row r="37" spans="2:14">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="91"/>
       <c r="C37" s="92"/>
       <c r="D37" s="92"/>
@@ -4184,7 +4071,7 @@
       <c r="M37" s="92"/>
       <c r="N37" s="90"/>
     </row>
-    <row r="38" spans="2:14">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B38" s="91"/>
       <c r="C38" s="92"/>
       <c r="D38" s="92"/>
@@ -4199,7 +4086,7 @@
       <c r="M38" s="92"/>
       <c r="N38" s="90"/>
     </row>
-    <row r="39" spans="2:14">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B39" s="91"/>
       <c r="C39" s="92"/>
       <c r="D39" s="92"/>
@@ -4214,7 +4101,7 @@
       <c r="M39" s="92"/>
       <c r="N39" s="90"/>
     </row>
-    <row r="40" spans="2:14">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B40" s="91"/>
       <c r="C40" s="92"/>
       <c r="D40" s="92"/>
@@ -4229,7 +4116,7 @@
       <c r="M40" s="92"/>
       <c r="N40" s="90"/>
     </row>
-    <row r="41" spans="2:14">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B41" s="91"/>
       <c r="C41" s="92"/>
       <c r="D41" s="92"/>
@@ -4244,7 +4131,7 @@
       <c r="M41" s="92"/>
       <c r="N41" s="90"/>
     </row>
-    <row r="42" spans="2:14">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B42" s="91"/>
       <c r="C42" s="92"/>
       <c r="D42" s="92"/>
@@ -4259,7 +4146,7 @@
       <c r="M42" s="92"/>
       <c r="N42" s="90"/>
     </row>
-    <row r="43" spans="2:14">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B43" s="91"/>
       <c r="C43" s="92"/>
       <c r="D43" s="92"/>
@@ -4274,7 +4161,7 @@
       <c r="M43" s="92"/>
       <c r="N43" s="90"/>
     </row>
-    <row r="44" spans="2:14">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B44" s="91"/>
       <c r="C44" s="92"/>
       <c r="D44" s="92"/>
@@ -4289,7 +4176,7 @@
       <c r="M44" s="92"/>
       <c r="N44" s="90"/>
     </row>
-    <row r="45" spans="2:14">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B45" s="91"/>
       <c r="C45" s="92"/>
       <c r="D45" s="92"/>
@@ -4304,7 +4191,7 @@
       <c r="M45" s="92"/>
       <c r="N45" s="90"/>
     </row>
-    <row r="46" spans="2:14">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B46" s="91"/>
       <c r="C46" s="92"/>
       <c r="D46" s="92"/>
@@ -4319,7 +4206,7 @@
       <c r="M46" s="92"/>
       <c r="N46" s="90"/>
     </row>
-    <row r="47" spans="2:14">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B47" s="91"/>
       <c r="C47" s="92"/>
       <c r="D47" s="92"/>
@@ -4334,7 +4221,7 @@
       <c r="M47" s="92"/>
       <c r="N47" s="90"/>
     </row>
-    <row r="48" spans="2:14">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B48" s="91"/>
       <c r="C48" s="92"/>
       <c r="D48" s="92"/>
@@ -4349,10 +4236,10 @@
       <c r="M48" s="92"/>
       <c r="N48" s="90"/>
     </row>
-    <row r="49" spans="2:14">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="91"/>
       <c r="C49" s="92" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D49" s="92"/>
       <c r="E49" s="92"/>
@@ -4366,10 +4253,10 @@
       <c r="M49" s="92"/>
       <c r="N49" s="90"/>
     </row>
-    <row r="50" spans="2:14">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="91"/>
       <c r="C50" s="92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" s="92"/>
       <c r="E50" s="92"/>
@@ -4383,7 +4270,7 @@
       <c r="M50" s="92"/>
       <c r="N50" s="90"/>
     </row>
-    <row r="51" spans="2:14">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B51" s="91"/>
       <c r="C51" s="92"/>
       <c r="D51" s="92"/>
@@ -4398,7 +4285,7 @@
       <c r="M51" s="92"/>
       <c r="N51" s="90"/>
     </row>
-    <row r="52" spans="2:14">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B52" s="91"/>
       <c r="C52" s="92"/>
       <c r="D52" s="92"/>
@@ -4413,7 +4300,7 @@
       <c r="M52" s="92"/>
       <c r="N52" s="90"/>
     </row>
-    <row r="53" spans="2:14">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B53" s="91"/>
       <c r="C53" s="92"/>
       <c r="D53" s="92"/>
@@ -4428,7 +4315,7 @@
       <c r="M53" s="92"/>
       <c r="N53" s="90"/>
     </row>
-    <row r="54" spans="2:14">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B54" s="91"/>
       <c r="C54" s="92"/>
       <c r="D54" s="92"/>
@@ -4436,7 +4323,7 @@
         <v>444</v>
       </c>
       <c r="F54" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
@@ -4447,7 +4334,7 @@
       <c r="M54" s="92"/>
       <c r="N54" s="90"/>
     </row>
-    <row r="55" spans="2:14">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B55" s="91"/>
       <c r="C55" s="92"/>
       <c r="D55" s="92"/>
@@ -4462,7 +4349,7 @@
       <c r="M55" s="92"/>
       <c r="N55" s="90"/>
     </row>
-    <row r="56" spans="2:14">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B56" s="91"/>
       <c r="C56" s="92"/>
       <c r="D56" s="92"/>
@@ -4477,7 +4364,7 @@
       <c r="M56" s="92"/>
       <c r="N56" s="90"/>
     </row>
-    <row r="57" spans="2:14">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B57" s="91"/>
       <c r="C57" s="92"/>
       <c r="D57" s="92"/>
@@ -4492,7 +4379,7 @@
       <c r="M57" s="92"/>
       <c r="N57" s="90"/>
     </row>
-    <row r="58" spans="2:14">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B58" s="91"/>
       <c r="C58" s="92"/>
       <c r="D58" s="92"/>
@@ -4507,10 +4394,10 @@
       <c r="M58" s="92"/>
       <c r="N58" s="90"/>
     </row>
-    <row r="59" spans="2:14">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="91"/>
       <c r="C59" s="92" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D59" s="92"/>
       <c r="E59" s="92"/>
@@ -4524,10 +4411,10 @@
       <c r="M59" s="92"/>
       <c r="N59" s="90"/>
     </row>
-    <row r="60" spans="2:14">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="91"/>
       <c r="C60" s="92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D60" s="92"/>
       <c r="E60" s="92"/>
@@ -4541,7 +4428,7 @@
       <c r="M60" s="92"/>
       <c r="N60" s="90"/>
     </row>
-    <row r="61" spans="2:14">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B61" s="91"/>
       <c r="C61" s="92"/>
       <c r="D61" s="92"/>
@@ -4556,7 +4443,7 @@
       <c r="M61" s="92"/>
       <c r="N61" s="90"/>
     </row>
-    <row r="62" spans="2:14">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B62" s="91"/>
       <c r="C62" s="92"/>
       <c r="D62" s="92"/>
@@ -4571,7 +4458,7 @@
       <c r="M62" s="92"/>
       <c r="N62" s="90"/>
     </row>
-    <row r="63" spans="2:14">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B63" s="91"/>
       <c r="C63" s="92"/>
       <c r="D63" s="92"/>
@@ -4586,7 +4473,7 @@
       <c r="M63" s="92"/>
       <c r="N63" s="90"/>
     </row>
-    <row r="64" spans="2:14">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B64" s="91"/>
       <c r="C64" s="92"/>
       <c r="D64" s="92"/>
@@ -4594,7 +4481,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G64" s="92"/>
       <c r="H64" s="92"/>
@@ -4605,7 +4492,7 @@
       <c r="M64" s="92"/>
       <c r="N64" s="90"/>
     </row>
-    <row r="65" spans="2:14">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B65" s="91"/>
       <c r="C65" s="92"/>
       <c r="D65" s="92"/>
@@ -4620,7 +4507,7 @@
       <c r="M65" s="92"/>
       <c r="N65" s="90"/>
     </row>
-    <row r="66" spans="2:14">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B66" s="91"/>
       <c r="C66" s="92"/>
       <c r="D66" s="92"/>
@@ -4635,7 +4522,7 @@
       <c r="M66" s="92"/>
       <c r="N66" s="90"/>
     </row>
-    <row r="67" spans="2:14">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B67" s="91"/>
       <c r="C67" s="92"/>
       <c r="D67" s="92"/>
@@ -4650,7 +4537,7 @@
       <c r="M67" s="92"/>
       <c r="N67" s="90"/>
     </row>
-    <row r="68" spans="2:14">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B68" s="91"/>
       <c r="C68" s="92"/>
       <c r="D68" s="92"/>
@@ -4665,7 +4552,7 @@
       <c r="M68" s="92"/>
       <c r="N68" s="90"/>
     </row>
-    <row r="69" spans="2:14">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B69" s="91"/>
       <c r="C69" s="92"/>
       <c r="D69" s="92"/>
@@ -4680,7 +4567,7 @@
       <c r="M69" s="92"/>
       <c r="N69" s="90"/>
     </row>
-    <row r="70" spans="2:14">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B70" s="91"/>
       <c r="C70" s="92"/>
       <c r="D70" s="92"/>
@@ -4695,7 +4582,7 @@
       <c r="M70" s="92"/>
       <c r="N70" s="90"/>
     </row>
-    <row r="71" spans="2:14">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B71" s="91"/>
       <c r="C71" s="92"/>
       <c r="D71" s="92"/>
@@ -4710,7 +4597,7 @@
       <c r="M71" s="92"/>
       <c r="N71" s="90"/>
     </row>
-    <row r="72" spans="2:14">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B72" s="91"/>
       <c r="C72" s="92"/>
       <c r="D72" s="92"/>
@@ -4725,7 +4612,7 @@
       <c r="M72" s="92"/>
       <c r="N72" s="90"/>
     </row>
-    <row r="73" spans="2:14">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B73" s="91"/>
       <c r="C73" s="92"/>
       <c r="D73" s="92"/>
@@ -4740,7 +4627,7 @@
       <c r="M73" s="92"/>
       <c r="N73" s="90"/>
     </row>
-    <row r="74" spans="2:14">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B74" s="91"/>
       <c r="C74" s="92"/>
       <c r="D74" s="92"/>
@@ -4755,7 +4642,7 @@
       <c r="M74" s="92"/>
       <c r="N74" s="90"/>
     </row>
-    <row r="75" spans="2:14">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B75" s="91"/>
       <c r="C75" s="92"/>
       <c r="D75" s="92"/>
@@ -4770,193 +4657,188 @@
       <c r="M75" s="92"/>
       <c r="N75" s="90"/>
     </row>
-    <row r="76" spans="2:14">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B76" s="91"/>
     </row>
-    <row r="77" spans="2:14">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="91"/>
       <c r="C77" s="84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B78" s="91"/>
     </row>
-    <row r="79" spans="2:14">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="91"/>
       <c r="E79" s="84">
         <v>2.2000000000000002</v>
       </c>
       <c r="F79" s="84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B80" s="91"/>
       <c r="E80" s="84">
         <f>1/E79</f>
         <v>0.45454545454545453</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B81" s="91"/>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B82" s="91"/>
     </row>
-    <row r="83" spans="2:6">
+    <row r="83" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B83" s="91"/>
     </row>
-    <row r="84" spans="2:6">
+    <row r="84" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B84" s="91"/>
     </row>
-    <row r="85" spans="2:6">
+    <row r="85" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B85" s="91"/>
     </row>
-    <row r="86" spans="2:6">
+    <row r="86" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B86" s="91"/>
     </row>
-    <row r="87" spans="2:6">
+    <row r="87" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B87" s="91"/>
     </row>
-    <row r="88" spans="2:6">
+    <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="91"/>
     </row>
-    <row r="89" spans="2:6">
+    <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="91"/>
     </row>
-    <row r="90" spans="2:6">
+    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B90" s="91"/>
       <c r="C90" s="92" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B91" s="91"/>
       <c r="C91" s="84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="91"/>
     </row>
-    <row r="93" spans="2:6">
+    <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="91"/>
       <c r="E93" s="84">
         <v>2.1</v>
       </c>
       <c r="F93" s="84" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="91"/>
       <c r="E94" s="84">
         <f>1/E93</f>
         <v>0.47619047619047616</v>
       </c>
       <c r="F94" s="84" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B95" s="91"/>
     </row>
-    <row r="96" spans="2:6">
+    <row r="96" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B96" s="91"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="91"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="91"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="91"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="91"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="91"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="91"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="91"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="91"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="91"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="91"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="91"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="91"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="91"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="91"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="91"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="91"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="91"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="91"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="91"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="91"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="91"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="91"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="91"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="91"/>
     </row>
-    <row r="121" spans="2:2">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="91"/>
     </row>
-    <row r="122" spans="2:2">
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B122" s="91"/>
     </row>
-    <row r="123" spans="2:2">
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B123" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/transport/transport_car_using_gasoline_mix.converter.xlsx
+++ b/nodes_source_analyses/transport/transport_car_using_gasoline_mix.converter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28908"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/transport/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27900" windowHeight="16260" tabRatio="762" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="103">
   <si>
     <t>Source</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>http://www.peakoil.nl/wp-content/uploads/2009/01/a_cost__benefit_analysis_of_combustion_cars_electric_cars_and_hydrogen_cars_in_the_netherlandsfinal.pdf</t>
-  </si>
-  <si>
-    <t>output.car_kms</t>
   </si>
   <si>
     <t>Sourcse</t>
@@ -327,6 +324,54 @@
     <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run rake import:node NODE="nodename" to update the node attributes on ETSource. 
 </t>
   </si>
+  <si>
+    <t>output.passenger_kms</t>
+  </si>
+  <si>
+    <t>pkm/MJ</t>
+  </si>
+  <si>
+    <t>MJ/vehicle km</t>
+  </si>
+  <si>
+    <t>vehicle km/MJ</t>
+  </si>
+  <si>
+    <t>passenger km/MJ</t>
+  </si>
+  <si>
+    <t>passenger km/vehicle km</t>
+  </si>
+  <si>
+    <t>vehicle km</t>
+  </si>
+  <si>
+    <t>CBS</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=80302NED&amp;D1=a&amp;D2=a&amp;D3=25&amp;HDR=T,G2&amp;STB=G1&amp;VW=T</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Vehicle kilometers cars</t>
+  </si>
+  <si>
+    <t>Passenger kilometers cars</t>
+  </si>
+  <si>
+    <t>http://statline.cbs.nl/Statweb/publication/?DM=SLNL&amp;PA=83497ned&amp;D1=0&amp;D2=a&amp;D3=0&amp;D4=5&amp;HDR=T,G3&amp;STB=G1,G2&amp;VW=T</t>
+  </si>
+  <si>
+    <t>passenger km</t>
+  </si>
+  <si>
+    <t>mld passenger km</t>
+  </si>
+  <si>
+    <t>mln vehicle km</t>
+  </si>
 </sst>
 </file>
 
@@ -336,12 +381,19 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -502,6 +554,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -509,6 +562,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -516,6 +570,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -523,17 +578,20 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -541,12 +599,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -556,6 +616,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -840,508 +901,513 @@
   </borders>
   <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="19" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1622,8 +1688,8 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1054100</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3488</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -1660,7 +1726,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>876299</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
@@ -1697,7 +1763,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
+      <xdr:colOff>25399</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>139699</xdr:rowOff>
     </xdr:to>
@@ -1735,7 +1801,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -1771,8 +1837,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>965200</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>3489</xdr:colOff>
       <xdr:row>74</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1810,7 +1876,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>812800</xdr:colOff>
+      <xdr:colOff>812799</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -1841,16 +1907,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>103262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1867,14 +1933,204 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4419600" y="16510000"/>
-          <a:ext cx="19710400" cy="13347700"/>
+          <a:off x="4432300" y="23304500"/>
+          <a:ext cx="17564100" cy="14236700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316173</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>158467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>36350</xdr:colOff>
+      <xdr:row>179</xdr:row>
+      <xdr:rowOff>4113</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9148446" y="31908467"/>
+          <a:ext cx="12737677" cy="4329131"/>
+          <a:chOff x="9231573" y="32137067"/>
+          <a:chExt cx="12902777" cy="4417646"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="8" name="Picture 7"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9231573" y="32137067"/>
+            <a:ext cx="12902777" cy="4417646"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="Rectangle 10"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13195110" y="34022352"/>
+            <a:ext cx="1173708" cy="552735"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>952501</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Group 13"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9086273" y="37092467"/>
+          <a:ext cx="16573501" cy="4129809"/>
+          <a:chOff x="9702800" y="37896800"/>
+          <a:chExt cx="16776701" cy="4152900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="10" name="Picture 9"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9702800" y="37896800"/>
+            <a:ext cx="16776701" cy="4152900"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="13367223" y="40003862"/>
+            <a:ext cx="1654792" cy="368490"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="3">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="2">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2324,10 +2580,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="30" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="21" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" style="21" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="21"/>
+    <col min="1" max="1" width="3.5" style="30" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="38.5" style="21" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -2353,16 +2609,16 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2387,7 +2643,7 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="97"/>
     </row>
@@ -2399,31 +2655,31 @@
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="98" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="100" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" s="100" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="98"/>
       <c r="C12" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="98"/>
       <c r="C13" s="101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="98"/>
       <c r="C14" s="99" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2434,58 +2690,58 @@
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="98" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="102" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="98"/>
       <c r="C17" s="103" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="98"/>
       <c r="C18" s="104" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="98"/>
       <c r="C19" s="105" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="106"/>
       <c r="C20" s="107" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="106"/>
       <c r="C21" s="108" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="106"/>
       <c r="C22" s="109" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="106"/>
       <c r="C23" s="110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2501,61 +2757,61 @@
   </sheetPr>
   <dimension ref="B1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="35" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="35" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="35" customWidth="1"/>
     <col min="3" max="3" width="36" style="35" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="35" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" style="35" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="35" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="15.5" style="35" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="35" customWidth="1"/>
     <col min="7" max="7" width="34" style="35" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="35" customWidth="1"/>
-    <col min="9" max="9" width="42.42578125" style="35" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="35" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="35"/>
+    <col min="8" max="8" width="5.1640625" style="35" customWidth="1"/>
+    <col min="9" max="9" width="42.5" style="35" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="35" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="36"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="146" t="s">
-        <v>87</v>
-      </c>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="148"/>
+      <c r="B2" s="151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="153"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="149"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="151"/>
+      <c r="B3" s="154"/>
+      <c r="C3" s="155"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="155"/>
+      <c r="F3" s="155"/>
+      <c r="G3" s="156"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="149"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="151"/>
+      <c r="B4" s="154"/>
+      <c r="C4" s="155"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
+      <c r="G4" s="156"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="152"/>
-      <c r="C5" s="153"/>
-      <c r="D5" s="153"/>
-      <c r="E5" s="153"/>
-      <c r="F5" s="153"/>
-      <c r="G5" s="154"/>
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="159"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="C6" s="36"/>
@@ -2613,7 +2869,7 @@
     <row r="11" spans="2:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="24"/>
       <c r="C11" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="32"/>
       <c r="E11" s="13"/>
@@ -2626,22 +2882,22 @@
     <row r="12" spans="2:11" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="24"/>
       <c r="C12" s="70" t="s">
-        <v>32</v>
+        <v>87</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E12" s="34">
         <f>'Research data'!H7</f>
-        <v>0.47619047619047616</v>
+        <v>0.63211786809616832</v>
       </c>
       <c r="F12" s="39"/>
       <c r="G12" s="140" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="145" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="14"/>
     </row>
@@ -2685,11 +2941,11 @@
       </c>
       <c r="F15" s="39"/>
       <c r="G15" s="93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="39"/>
       <c r="I15" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J15" s="117"/>
     </row>
@@ -2740,35 +2996,35 @@
   </sheetPr>
   <dimension ref="A2:X14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="45" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="45" customWidth="1"/>
     <col min="2" max="2" width="3" style="45" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="45" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="45" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="45" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="45" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="45" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="45" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10" style="45" customWidth="1"/>
     <col min="7" max="7" width="3" style="45" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="45" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="45" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="45" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="45" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="2.42578125" style="45" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" style="45" customWidth="1"/>
-    <col min="15" max="15" width="2.140625" style="45" customWidth="1"/>
-    <col min="16" max="16" width="9.28515625" style="45" customWidth="1"/>
-    <col min="17" max="17" width="2.85546875" style="45" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="45" customWidth="1"/>
+    <col min="9" max="9" width="2.5" style="45" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="45" customWidth="1"/>
+    <col min="11" max="11" width="2.5" style="45" customWidth="1"/>
+    <col min="12" max="12" width="9.33203125" style="45" customWidth="1"/>
+    <col min="13" max="13" width="2.5" style="45" customWidth="1"/>
+    <col min="14" max="14" width="8.5" style="45" customWidth="1"/>
+    <col min="15" max="15" width="2.1640625" style="45" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" style="45" customWidth="1"/>
+    <col min="17" max="17" width="2.83203125" style="45" customWidth="1"/>
     <col min="18" max="18" width="11" style="45" customWidth="1"/>
-    <col min="19" max="19" width="2.42578125" style="45" customWidth="1"/>
+    <col min="19" max="19" width="2.5" style="45" customWidth="1"/>
     <col min="20" max="20" width="11" style="45" customWidth="1"/>
-    <col min="21" max="21" width="2.42578125" style="45" customWidth="1"/>
-    <col min="22" max="22" width="22.42578125" style="45" customWidth="1"/>
-    <col min="23" max="16384" width="10.7109375" style="45"/>
+    <col min="21" max="21" width="2.5" style="45" customWidth="1"/>
+    <col min="22" max="22" width="22.5" style="45" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="45"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -2798,7 +3054,7 @@
     <row r="4" spans="1:24" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24"/>
       <c r="C4" s="112" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
@@ -2811,7 +3067,7 @@
       </c>
       <c r="I4" s="112"/>
       <c r="J4" s="112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="112"/>
       <c r="L4" s="112" t="s">
@@ -2823,19 +3079,19 @@
       </c>
       <c r="O4" s="112"/>
       <c r="P4" s="112" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q4" s="112"/>
       <c r="R4" s="112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="S4" s="112"/>
       <c r="T4" s="112" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="U4" s="112"/>
       <c r="V4" s="112" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -2867,7 +3123,7 @@
       <c r="A6" s="126"/>
       <c r="B6" s="127"/>
       <c r="C6" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -2893,18 +3149,19 @@
     <row r="7" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="126"/>
       <c r="B7" s="127"/>
-      <c r="C7" s="134" t="s">
-        <v>32</v>
+      <c r="C7" s="134" t="str">
+        <f>Dashboard!C12</f>
+        <v>output.passenger_kms</v>
       </c>
       <c r="D7" s="134"/>
       <c r="E7" s="134"/>
       <c r="F7" s="135" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G7" s="136"/>
       <c r="H7" s="137">
         <f>T7</f>
-        <v>0.47619047619047616</v>
+        <v>0.63211786809616832</v>
       </c>
       <c r="I7" s="130"/>
       <c r="J7" s="126"/>
@@ -2914,19 +3171,19 @@
       <c r="N7" s="133"/>
       <c r="O7" s="126"/>
       <c r="P7" s="137">
-        <f>Notes!E80</f>
-        <v>0.45454545454545453</v>
+        <f>Notes!E168</f>
+        <v>0.60338523772816066</v>
       </c>
       <c r="Q7" s="126"/>
       <c r="R7" s="131"/>
       <c r="S7" s="131"/>
       <c r="T7" s="137">
         <f>Notes!E94</f>
-        <v>0.47619047619047616</v>
+        <v>0.63211786809616832</v>
       </c>
       <c r="U7" s="138"/>
       <c r="V7" s="144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
@@ -3032,7 +3289,7 @@
     <row r="12" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="48"/>
       <c r="C12" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
@@ -3057,7 +3314,7 @@
     <row r="13" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="48"/>
       <c r="C13" s="120" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -3096,7 +3353,7 @@
     <row r="14" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="48"/>
       <c r="C14" s="57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="59"/>
@@ -3137,24 +3394,24 @@
   <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="72" customWidth="1"/>
-    <col min="2" max="2" width="6.42578125" style="72" customWidth="1"/>
-    <col min="3" max="3" width="27.85546875" style="72" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="72" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="72" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" style="72" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="77" customWidth="1"/>
-    <col min="9" max="9" width="31.42578125" style="77" customWidth="1"/>
-    <col min="10" max="10" width="98.42578125" style="72" customWidth="1"/>
-    <col min="11" max="16384" width="33.140625" style="72"/>
+    <col min="1" max="1" width="3.5" style="72" customWidth="1"/>
+    <col min="2" max="2" width="6.5" style="72" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="72" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="72" customWidth="1"/>
+    <col min="5" max="5" width="10.33203125" style="72" customWidth="1"/>
+    <col min="6" max="7" width="13.33203125" style="72" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="77" customWidth="1"/>
+    <col min="9" max="9" width="31.5" style="77" customWidth="1"/>
+    <col min="10" max="10" width="98.5" style="72" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="72"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3208,13 +3465,13 @@
         <v>18</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5" s="15" t="s">
         <v>10</v>
@@ -3235,7 +3492,7 @@
       <c r="B7" s="75"/>
       <c r="C7" s="81"/>
       <c r="D7" s="94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E7" s="71" t="s">
         <v>7</v>
@@ -3248,10 +3505,10 @@
       </c>
       <c r="H7" s="76"/>
       <c r="I7" s="125" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
@@ -3295,10 +3552,10 @@
       </c>
       <c r="H10" s="76"/>
       <c r="I10" s="125" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J10" s="124" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
@@ -3339,7 +3596,7 @@
       </c>
       <c r="I13" s="71"/>
       <c r="J13" s="71" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
@@ -3369,10 +3626,10 @@
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="75"/>
       <c r="C16" s="139" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="123" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E16" s="83" t="s">
         <v>7</v>
@@ -3385,10 +3642,10 @@
       </c>
       <c r="H16" s="71"/>
       <c r="I16" s="125" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J16" s="123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
@@ -3421,7 +3678,7 @@
         <v>26</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="71" t="s">
         <v>7</v>
@@ -3434,7 +3691,7 @@
       </c>
       <c r="H19" s="71"/>
       <c r="I19" s="125" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J19" s="71" t="s">
         <v>31</v>
@@ -3454,10 +3711,10 @@
       <c r="A21" s="141"/>
       <c r="B21" s="142"/>
       <c r="C21" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="92" t="s">
         <v>80</v>
-      </c>
-      <c r="D21" s="92" t="s">
-        <v>81</v>
       </c>
       <c r="E21" s="141" t="s">
         <v>7</v>
@@ -3470,14 +3727,60 @@
       </c>
       <c r="H21" s="141"/>
       <c r="I21" s="141" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="J21" s="84" t="s">
-        <v>84</v>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="146" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="72">
+        <v>2015</v>
+      </c>
+      <c r="H23" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="J23" s="72" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="H24" s="147"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="146" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="146" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="72">
+        <v>2015</v>
+      </c>
+      <c r="H25" s="147" t="s">
+        <v>96</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="31" type="noConversion"/>
+  <phoneticPr fontId="32" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
 </worksheet>
@@ -3488,23 +3791,23 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:N123"/>
+  <dimension ref="A1:N208"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92"/>
+    <sheetView topLeftCell="A82" zoomScale="132" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="84" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="84" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="84" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="84" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="84" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="84" customWidth="1"/>
-    <col min="7" max="13" width="10.7109375" style="84"/>
-    <col min="14" max="14" width="7.140625" style="84" customWidth="1"/>
-    <col min="15" max="16384" width="10.7109375" style="84"/>
+    <col min="1" max="1" width="3.6640625" style="84" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="84" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="84" customWidth="1"/>
+    <col min="4" max="4" width="12" style="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="84" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" style="84" customWidth="1"/>
+    <col min="7" max="13" width="10.83203125" style="84"/>
+    <col min="14" max="14" width="7.1640625" style="84" customWidth="1"/>
+    <col min="15" max="16384" width="10.83203125" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -3527,11 +3830,11 @@
       <c r="A3" s="88"/>
       <c r="B3" s="121"/>
       <c r="C3" s="95" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3" s="95"/>
       <c r="E3" s="95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="95"/>
       <c r="G3" s="95"/>
@@ -3837,7 +4140,7 @@
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B23" s="91"/>
       <c r="C23" s="92" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D23" s="92"/>
       <c r="E23" s="92"/>
@@ -4239,7 +4542,7 @@
     <row r="49" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B49" s="91"/>
       <c r="C49" s="92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D49" s="92"/>
       <c r="E49" s="92"/>
@@ -4256,7 +4559,7 @@
     <row r="50" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B50" s="91"/>
       <c r="C50" s="92" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D50" s="92"/>
       <c r="E50" s="92"/>
@@ -4323,7 +4626,7 @@
         <v>444</v>
       </c>
       <c r="F54" s="92" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="92"/>
       <c r="H54" s="92"/>
@@ -4397,7 +4700,7 @@
     <row r="59" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B59" s="91"/>
       <c r="C59" s="92" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D59" s="92"/>
       <c r="E59" s="92"/>
@@ -4414,7 +4717,7 @@
     <row r="60" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B60" s="91"/>
       <c r="C60" s="92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" s="92"/>
       <c r="E60" s="92"/>
@@ -4481,7 +4784,7 @@
         <v>13</v>
       </c>
       <c r="F64" s="92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G64" s="92"/>
       <c r="H64" s="92"/>
@@ -4663,7 +4966,7 @@
     <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B77" s="91"/>
       <c r="C77" s="84" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.2">
@@ -4675,7 +4978,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F79" s="84" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.2">
@@ -4685,7 +4988,7 @@
         <v>0.45454545454545453</v>
       </c>
       <c r="F80" s="84" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="2:6" x14ac:dyDescent="0.2">
@@ -4711,42 +5014,53 @@
     </row>
     <row r="88" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B88" s="91"/>
+      <c r="C88" s="92" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="89" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B89" s="91"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C89" s="84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B90" s="91"/>
-      <c r="C90" s="92" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B91" s="91"/>
-      <c r="C91" s="84" t="s">
-        <v>82</v>
+      <c r="E91" s="149">
+        <v>2.1</v>
+      </c>
+      <c r="F91" s="84" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B92" s="91"/>
+      <c r="E92" s="84">
+        <f>1/E91</f>
+        <v>0.47619047619047616</v>
+      </c>
+      <c r="F92" s="84" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="93" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B93" s="91"/>
-      <c r="E93" s="84">
-        <v>2.1</v>
-      </c>
-      <c r="F93" s="84" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="94" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B94" s="91"/>
+      <c r="D94" s="84" t="str">
+        <f>'Research data'!C7</f>
+        <v>output.passenger_kms</v>
+      </c>
       <c r="E94" s="84">
-        <f>1/E93</f>
-        <v>0.47619047619047616</v>
+        <f>E164*E92</f>
+        <v>0.63211786809616832</v>
       </c>
       <c r="F94" s="84" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="2:6" x14ac:dyDescent="0.2">
@@ -4830,11 +5144,218 @@
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B121" s="91"/>
     </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="91"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="91"/>
+    <row r="156" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B156" s="91"/>
+    </row>
+    <row r="157" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B157" s="91"/>
+    </row>
+    <row r="158" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B158" s="91"/>
+    </row>
+    <row r="159" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B159" s="91"/>
+      <c r="C159" s="88" t="s">
+        <v>94</v>
+      </c>
+      <c r="D159" s="84" t="s">
+        <v>93</v>
+      </c>
+      <c r="E159" s="148">
+        <v>105088.9</v>
+      </c>
+      <c r="F159" s="84" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="160" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B160" s="91"/>
+      <c r="E160" s="84">
+        <f>E159*1000000</f>
+        <v>105088900000</v>
+      </c>
+      <c r="F160" s="84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="161" spans="2:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B161" s="91"/>
+      <c r="D161" s="84" t="s">
+        <v>100</v>
+      </c>
+      <c r="E161" s="149">
+        <f>(97.3+42.2)</f>
+        <v>139.5</v>
+      </c>
+      <c r="F161" s="84" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="162" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B162" s="91"/>
+      <c r="E162" s="84">
+        <f>E161*1000000000</f>
+        <v>139500000000</v>
+      </c>
+      <c r="F162" s="84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="163" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B163" s="91"/>
+    </row>
+    <row r="164" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="91"/>
+      <c r="E164" s="150">
+        <f>E162/E160</f>
+        <v>1.3274475230019536</v>
+      </c>
+      <c r="F164" s="84" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="165" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B165" s="91"/>
+    </row>
+    <row r="166" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B166" s="91"/>
+    </row>
+    <row r="167" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B167" s="91"/>
+    </row>
+    <row r="168" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B168" s="91"/>
+      <c r="D168" s="84" t="str">
+        <f>'Research data'!C7</f>
+        <v>output.passenger_kms</v>
+      </c>
+      <c r="E168" s="84">
+        <f>E164*E80</f>
+        <v>0.60338523772816066</v>
+      </c>
+      <c r="F168" s="84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="169" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B169" s="91"/>
+    </row>
+    <row r="170" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B170" s="91"/>
+    </row>
+    <row r="171" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B171" s="91"/>
+    </row>
+    <row r="172" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B172" s="91"/>
+    </row>
+    <row r="173" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B173" s="91"/>
+    </row>
+    <row r="174" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B174" s="91"/>
+    </row>
+    <row r="175" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B175" s="91"/>
+    </row>
+    <row r="176" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B176" s="91"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B177" s="91"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B178" s="91"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B179" s="91"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B180" s="91"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B181" s="91"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B182" s="91"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B183" s="91"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B184" s="91"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B185" s="91"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B186" s="91"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B187" s="91"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B188" s="91"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B189" s="91"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B190" s="91"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B191" s="91"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B192" s="91"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B193" s="91"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" s="91"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" s="91"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" s="91"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" s="91"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" s="91"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" s="91"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" s="91"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" s="91"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" s="91"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B203" s="91"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B204" s="91"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" s="91"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" s="91"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B207" s="91"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" s="91"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
